--- a/docs/exercise_05/Exercises_05_IR_structured_retrieval.xlsx
+++ b/docs/exercise_05/Exercises_05_IR_structured_retrieval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\GitHub\zestones\information-retrieval\docs\exercise_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682306BA-65C7-4DF5-8E5F-D80E12B905CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFFDFFB-FD8D-4875-B025-626A04A1E1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="43">
   <si>
     <t>a</t>
   </si>
@@ -359,6 +359,9 @@
   <si>
     <t>Number of words</t>
   </si>
+  <si>
+    <t xml:space="preserve">B25F (Wilkinson) Late combination </t>
+  </si>
 </sst>
 </file>
 
@@ -416,7 +419,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1076,11 +1079,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1292,9 +1371,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1334,6 +1410,78 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1387,6 +1535,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1694,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1720,19 +1877,19 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="L2" s="85" t="s">
+      <c r="L2" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="87"/>
+      <c r="M2" s="110"/>
     </row>
     <row r="3" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
@@ -2048,7 +2205,7 @@
         <v>0.5</v>
       </c>
       <c r="L11" s="55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="55">
         <v>1</v>
@@ -2081,56 +2238,56 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="87"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="113"/>
     </row>
     <row r="15" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="101" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="102">
         <v>5</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="19">
         <v>10</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="19">
         <v>5</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="19">
         <v>10</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="20">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="50" t="s">
+    <row r="17" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="102">
         <v>8</v>
       </c>
       <c r="D17" s="19">
@@ -2147,47 +2304,47 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="59">
+      <c r="C18" s="103">
         <v>10</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="29">
         <v>25</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="29">
         <v>10</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="29">
         <v>24</v>
       </c>
-      <c r="G18" s="61">
+      <c r="G18" s="30">
         <v>250</v>
       </c>
       <c r="H18" s="57"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="104" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="59">
         <f>SUM(C16:C18)</f>
         <v>23</v>
       </c>
-      <c r="D19" s="59">
+      <c r="D19" s="60">
         <f t="shared" ref="D19:G19" si="2">SUM(D16:D18)</f>
         <v>55</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="60">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="60">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="G19" s="59">
+      <c r="G19" s="61">
         <f t="shared" si="2"/>
         <v>530</v>
       </c>
@@ -2195,13 +2352,13 @@
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="87"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="110"/>
       <c r="H21" s="13" t="s">
         <v>26</v>
       </c>
@@ -2308,13 +2465,13 @@
       <c r="J30" s="46"/>
     </row>
     <row r="31" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="85" t="s">
+      <c r="C31" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="87"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="110"/>
       <c r="H31" s="13" t="s">
         <v>26</v>
       </c>
@@ -2434,13 +2591,13 @@
       <c r="J40" s="46"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="85" t="s">
+      <c r="C41" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="87"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="110"/>
       <c r="J41" s="46"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2456,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="31">
-        <f t="shared" si="3"/>
+        <f>(E4 * ($J$11 + 1)) / ($J$11 * ( ( 1 - $K$11) + $K$11 * ($H$4 / $L$5)) + E4)</f>
         <v>0.70588235294117652</v>
       </c>
       <c r="F42" s="31">
@@ -2467,7 +2624,7 @@
         <f t="shared" si="3"/>
         <v>1.3714285714285714</v>
       </c>
-      <c r="H42" s="97" t="s">
+      <c r="H42" s="120" t="s">
         <v>27</v>
       </c>
       <c r="J42" s="46"/>
@@ -2496,7 +2653,7 @@
         <f t="shared" si="4"/>
         <v>1.2734082397003745</v>
       </c>
-      <c r="H43" s="98"/>
+      <c r="H43" s="121"/>
       <c r="J43" s="46"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2523,7 +2680,7 @@
         <f t="shared" si="5"/>
         <v>1.7316017316017316</v>
       </c>
-      <c r="H44" s="98"/>
+      <c r="H44" s="121"/>
       <c r="J44" s="46"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2550,7 +2707,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H45" s="98"/>
+      <c r="H45" s="121"/>
       <c r="J45" s="46"/>
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2577,7 +2734,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H46" s="98"/>
+      <c r="H46" s="121"/>
       <c r="J46" s="46"/>
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2604,7 +2761,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H47" s="98"/>
+      <c r="H47" s="121"/>
       <c r="J47" s="46"/>
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2616,7 +2773,7 @@
       <c r="E48" s="32"/>
       <c r="F48" s="32"/>
       <c r="G48" s="33"/>
-      <c r="H48" s="97" t="s">
+      <c r="H48" s="120" t="s">
         <v>28</v>
       </c>
       <c r="J48" s="46"/>
@@ -2630,7 +2787,7 @@
       <c r="E49" s="35"/>
       <c r="F49" s="35"/>
       <c r="G49" s="36"/>
-      <c r="H49" s="98"/>
+      <c r="H49" s="121"/>
       <c r="J49" s="46"/>
     </row>
     <row r="50" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2642,7 +2799,7 @@
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
       <c r="G50" s="39"/>
-      <c r="H50" s="98"/>
+      <c r="H50" s="121"/>
       <c r="J50" s="46"/>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2654,7 +2811,7 @@
       <c r="E51" s="32"/>
       <c r="F51" s="32"/>
       <c r="G51" s="33"/>
-      <c r="H51" s="98"/>
+      <c r="H51" s="121"/>
       <c r="J51" s="46"/>
     </row>
     <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2666,7 +2823,7 @@
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
       <c r="G52" s="36"/>
-      <c r="H52" s="98"/>
+      <c r="H52" s="121"/>
       <c r="J52" s="46"/>
     </row>
     <row r="53" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2678,30 +2835,30 @@
       <c r="E53" s="44"/>
       <c r="F53" s="44"/>
       <c r="G53" s="45"/>
-      <c r="H53" s="99"/>
+      <c r="H53" s="122"/>
       <c r="J53" s="46"/>
     </row>
     <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="31">
+      <c r="C54" s="40">
         <f>(C10 * ($J$11 + 1)) / ($J$11 * ( ( 1 - $K$11) + $K$11 * ($H$10 / $L$4)) + C10)</f>
         <v>1.1267605633802817</v>
       </c>
-      <c r="D54" s="31">
+      <c r="D54" s="40">
         <f t="shared" ref="D54:G54" si="9">(D10 * ($J$11 + 1)) / ($J$11 * ( ( 1 - $K$11) + $K$11 * ($H$10 / $L$4)) + D10)</f>
         <v>0</v>
       </c>
-      <c r="E54" s="31">
+      <c r="E54" s="40">
         <f t="shared" si="9"/>
         <v>1.1267605633802817</v>
       </c>
-      <c r="F54" s="31">
+      <c r="F54" s="40">
         <f t="shared" si="9"/>
         <v>1.6753926701570678</v>
       </c>
-      <c r="G54" s="31">
+      <c r="G54" s="6">
         <f t="shared" si="9"/>
         <v>1.7316017316017316</v>
       </c>
@@ -2712,23 +2869,23 @@
       <c r="B55" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="31">
+      <c r="C55" s="43">
         <f>(C11 * ($J$11 + 1)) / ($J$11 * ( ( 1 - $K$11) + $K$11 * ($H$11 / $L$4)) + C11)</f>
         <v>1.2121212121212122</v>
       </c>
-      <c r="D55" s="31">
+      <c r="D55" s="43">
         <f t="shared" ref="D55:G55" si="10">(D11 * ($J$11 + 1)) / ($J$11 * ( ( 1 - $K$11) + $K$11 * ($H$11 / $L$4)) + D11)</f>
         <v>1.7204301075268815</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E55" s="43">
         <f t="shared" si="10"/>
         <v>1.2121212121212122</v>
       </c>
-      <c r="F55" s="31">
+      <c r="F55" s="43">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G55" s="31">
+      <c r="G55" s="80">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2740,13 +2897,13 @@
       <c r="J56" s="46"/>
     </row>
     <row r="57" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="88" t="s">
+      <c r="C57" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="89"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="89"/>
-      <c r="G57" s="90"/>
+      <c r="D57" s="112"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="112"/>
+      <c r="G57" s="113"/>
       <c r="J57" s="46"/>
     </row>
     <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2754,12 +2911,12 @@
       <c r="B58" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="76"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="100" t="s">
+      <c r="C58" s="75"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="123" t="s">
         <v>27</v>
       </c>
       <c r="J58" s="46"/>
@@ -2769,12 +2926,12 @@
       <c r="B59" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="78"/>
+      <c r="C59" s="77"/>
       <c r="D59" s="70"/>
       <c r="E59" s="70"/>
       <c r="F59" s="70"/>
       <c r="G59" s="70"/>
-      <c r="H59" s="101"/>
+      <c r="H59" s="124"/>
       <c r="J59" s="46"/>
     </row>
     <row r="60" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2782,20 +2939,20 @@
       <c r="B60" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="79"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="102"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="125"/>
       <c r="J60" s="46"/>
     </row>
     <row r="61" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-      <c r="B61" s="75" t="s">
+      <c r="B61" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="72">
+      <c r="C61" s="71">
         <f>LOG(($K$5 - C16 + $K$11) / (C16 + $K$11))</f>
         <v>2.2576785748691846</v>
       </c>
@@ -2815,7 +2972,7 @@
         <f>LOG(($K$5 - G16 + $K$11) / (G16 + $K$11))</f>
         <v>0.95231765539904445</v>
       </c>
-      <c r="H61" s="100" t="s">
+      <c r="H61" s="123" t="s">
         <v>31</v>
       </c>
       <c r="J61" s="46"/>
@@ -2825,7 +2982,7 @@
       <c r="B62" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="73">
+      <c r="C62" s="72">
         <f>LOG(($K$6 - C17 + $K$11) / (C17 + $K$11))</f>
         <v>1.9695803451754963</v>
       </c>
@@ -2845,7 +3002,7 @@
         <f>LOG(($K$6 - G17 + $K$11) / (G17 + $K$11))</f>
         <v>0.53626457959307183</v>
       </c>
-      <c r="H62" s="101"/>
+      <c r="H62" s="124"/>
       <c r="J62" s="46"/>
     </row>
     <row r="63" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2853,7 +3010,7 @@
       <c r="B63" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="74">
+      <c r="C63" s="73">
         <f>LOG(($K$4 - C18 + $K$11) / (C18 + $K$11))</f>
         <v>1.9746651808046278</v>
       </c>
@@ -2873,31 +3030,31 @@
         <f>LOG(($K$4 - G18 + $K$11) / (G18 + $K$11))</f>
         <v>0.47654296637602467</v>
       </c>
-      <c r="H63" s="102"/>
+      <c r="H63" s="125"/>
       <c r="J63" s="46"/>
     </row>
     <row r="64" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
-      <c r="B64" s="71" t="s">
+      <c r="B64" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="43">
+      <c r="C64" s="85">
         <f>LOG(($K$4 - C18 + $K$11) / (C18 + $K$11))</f>
         <v>1.9746651808046278</v>
       </c>
-      <c r="D64" s="43">
+      <c r="D64" s="85">
         <f t="shared" ref="D64:G64" si="11">LOG(($K$4 - D18 + $K$11) / (D18 + $K$11))</f>
         <v>1.5826870932965817</v>
       </c>
-      <c r="E64" s="43">
+      <c r="E64" s="85">
         <f t="shared" si="11"/>
         <v>1.9746651808046278</v>
       </c>
-      <c r="F64" s="43">
+      <c r="F64" s="85">
         <f t="shared" si="11"/>
         <v>1.6005061632593407</v>
       </c>
-      <c r="G64" s="43">
+      <c r="G64" s="83">
         <f t="shared" si="11"/>
         <v>0.47654296637602467</v>
       </c>
@@ -2907,13 +3064,13 @@
       <c r="J65" s="46"/>
     </row>
     <row r="66" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="85" t="s">
+      <c r="C66" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="86"/>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="87"/>
+      <c r="D66" s="109"/>
+      <c r="E66" s="109"/>
+      <c r="F66" s="109"/>
+      <c r="G66" s="110"/>
       <c r="H66" s="13" t="s">
         <v>26</v>
       </c>
@@ -2930,7 +3087,7 @@
       <c r="F67" s="32"/>
       <c r="G67" s="33"/>
       <c r="H67" s="6"/>
-      <c r="I67" s="97" t="s">
+      <c r="I67" s="120" t="s">
         <v>27</v>
       </c>
       <c r="J67" s="46"/>
@@ -2945,7 +3102,7 @@
       <c r="F68" s="35"/>
       <c r="G68" s="36"/>
       <c r="H68" s="7"/>
-      <c r="I68" s="98"/>
+      <c r="I68" s="121"/>
       <c r="J68" s="46"/>
     </row>
     <row r="69" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2958,7 +3115,7 @@
       <c r="F69" s="38"/>
       <c r="G69" s="39"/>
       <c r="H69" s="11"/>
-      <c r="I69" s="98"/>
+      <c r="I69" s="121"/>
       <c r="J69" s="46"/>
     </row>
     <row r="70" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2971,7 +3128,7 @@
       <c r="F70" s="32"/>
       <c r="G70" s="33"/>
       <c r="H70" s="8"/>
-      <c r="I70" s="98"/>
+      <c r="I70" s="121"/>
       <c r="J70" s="46"/>
     </row>
     <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2984,7 +3141,7 @@
       <c r="F71" s="35"/>
       <c r="G71" s="36"/>
       <c r="H71" s="9"/>
-      <c r="I71" s="98"/>
+      <c r="I71" s="121"/>
       <c r="J71" s="46"/>
     </row>
     <row r="72" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2997,7 +3154,7 @@
       <c r="F72" s="44"/>
       <c r="G72" s="45"/>
       <c r="H72" s="10"/>
-      <c r="I72" s="99"/>
+      <c r="I72" s="122"/>
       <c r="J72" s="46"/>
     </row>
     <row r="73" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3007,13 +3164,13 @@
     </row>
     <row r="74" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="46"/>
-      <c r="C74" s="85" t="s">
+      <c r="C74" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="D74" s="86"/>
-      <c r="E74" s="86"/>
-      <c r="F74" s="86"/>
-      <c r="G74" s="87"/>
+      <c r="D74" s="109"/>
+      <c r="E74" s="109"/>
+      <c r="F74" s="109"/>
+      <c r="G74" s="110"/>
       <c r="H74" s="13" t="s">
         <v>26</v>
       </c>
@@ -3025,11 +3182,11 @@
         <v>17</v>
       </c>
       <c r="C75" s="31">
-        <f t="shared" ref="C75:G77" si="12">C42 * C61</f>
+        <f>C42 * C61</f>
         <v>0</v>
       </c>
       <c r="D75" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="C75:G77" si="12">D42 * D61</f>
         <v>0</v>
       </c>
       <c r="E75" s="31">
@@ -3048,7 +3205,7 @@
         <f>SUMIF(C12:G12,"&gt;0",C75:G75)</f>
         <v>1.3060356416901182</v>
       </c>
-      <c r="I75" s="97" t="s">
+      <c r="I75" s="120" t="s">
         <v>28</v>
       </c>
       <c r="J75" s="46"/>
@@ -3082,7 +3239,7 @@
         <f>SUMIF(C12:G12,"&gt;0",C76:G76)</f>
         <v>3.1909635746116596</v>
       </c>
-      <c r="I76" s="98"/>
+      <c r="I76" s="121"/>
       <c r="J76" s="46"/>
     </row>
     <row r="77" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3114,7 +3271,7 @@
         <f>SUMIF(C12:G12,"&gt;0",C77:G77)</f>
         <v>3.0501574773701985</v>
       </c>
-      <c r="I77" s="98"/>
+      <c r="I77" s="121"/>
       <c r="J77" s="46"/>
     </row>
     <row r="78" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3146,7 +3303,7 @@
         <f>SUMIF(C12:G12,"&gt;0",C78:G78)</f>
         <v>2.2576785748691846</v>
       </c>
-      <c r="I78" s="98"/>
+      <c r="I78" s="121"/>
       <c r="J78" s="46"/>
     </row>
     <row r="79" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3178,7 +3335,7 @@
         <f>SUMIF(C12:G12,"&gt;0",C79:G79)</f>
         <v>0</v>
       </c>
-      <c r="I79" s="98"/>
+      <c r="I79" s="121"/>
       <c r="J79" s="46"/>
     </row>
     <row r="80" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3202,7 +3359,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G80" s="81">
+      <c r="G80" s="80">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -3210,10 +3367,10 @@
         <f>SUMIF(C12:G12,"&gt;0",C80:G80)</f>
         <v>2.393533552490458</v>
       </c>
-      <c r="I80" s="99"/>
+      <c r="I80" s="122"/>
       <c r="J80" s="46"/>
     </row>
-    <row r="81" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -3223,21 +3380,21 @@
       <c r="I81" s="4"/>
       <c r="J81" s="46"/>
     </row>
-    <row r="82" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="85" t="s">
+    <row r="82" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="D82" s="86"/>
-      <c r="E82" s="86"/>
-      <c r="F82" s="86"/>
-      <c r="G82" s="87"/>
+      <c r="D82" s="109"/>
+      <c r="E82" s="109"/>
+      <c r="F82" s="109"/>
+      <c r="G82" s="110"/>
       <c r="H82" s="13" t="s">
         <v>26</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="46"/>
     </row>
-    <row r="83" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="47" t="s">
         <v>24</v>
       </c>
@@ -3257,7 +3414,7 @@
         <f t="shared" si="16"/>
         <v>2.6814762944659107</v>
       </c>
-      <c r="G83" s="82">
+      <c r="G83" s="81">
         <f t="shared" si="16"/>
         <v>0.82518262575935009</v>
       </c>
@@ -3268,7 +3425,7 @@
       <c r="I83" s="62"/>
       <c r="J83" s="46"/>
     </row>
-    <row r="84" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="54" t="s">
         <v>25</v>
       </c>
@@ -3288,68 +3445,184 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G84" s="83">
+      <c r="G84" s="82">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H84" s="84">
+      <c r="H84" s="83">
         <f>SUMIF(C12:G12,"&gt;0",C84:G84)</f>
         <v>2.393533552490458</v>
       </c>
       <c r="J84" s="46"/>
-    </row>
-    <row r="85" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K84" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="L84" s="106"/>
+      <c r="M84" s="106"/>
+      <c r="N84" s="106"/>
+      <c r="O84" s="107"/>
+    </row>
+    <row r="85" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J85" s="46"/>
-    </row>
-    <row r="86" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D86" s="85" t="s">
+      <c r="K85" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="L85" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="M85" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="N85" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="O85" s="88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D86" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E86" s="86"/>
-      <c r="F86" s="86"/>
-      <c r="G86" s="87"/>
+      <c r="E86" s="109"/>
+      <c r="F86" s="109"/>
+      <c r="G86" s="110"/>
       <c r="H86" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J86" s="46"/>
-    </row>
-    <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D87" s="91" t="s">
+      <c r="J86" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="90">
+        <f>C75*alpha_title</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="91">
+        <f>D75*alpha_title</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="91">
+        <f>E75*alpha_title</f>
+        <v>3.1873109292270843</v>
+      </c>
+      <c r="N86" s="91">
+        <f>F75*alpha_title</f>
+        <v>4.9026170006183865</v>
+      </c>
+      <c r="O86" s="92">
+        <f>G75*alpha_title</f>
+        <v>2.6120712833802364</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D87" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="92"/>
-      <c r="F87" s="92"/>
-      <c r="G87" s="93"/>
-      <c r="H87" s="63"/>
-      <c r="J87" s="46"/>
-    </row>
-    <row r="88" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D88" s="94" t="s">
+      <c r="E87" s="115"/>
+      <c r="F87" s="115"/>
+      <c r="G87" s="116"/>
+      <c r="H87" s="63">
+        <f>SUMIF(C12:G12,"&gt;0",K87:O87) + SUMIF(C12:G12,"&gt;0",K86:O86)</f>
+        <v>5.8030348579918964</v>
+      </c>
+      <c r="J87" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" s="93">
+        <f>C76*alpha_abs</f>
+        <v>2.5080798402983846</v>
+      </c>
+      <c r="L87" s="94">
+        <f>D76*alpha_abs</f>
+        <v>0</v>
+      </c>
+      <c r="M87" s="94">
+        <f>E76*alpha_abs</f>
+        <v>0</v>
+      </c>
+      <c r="N87" s="94">
+        <f>F76*alpha_abs</f>
+        <v>2.0127733174401192</v>
+      </c>
+      <c r="O87" s="95">
+        <f>G76*alpha_abs</f>
+        <v>0.68288373431327498</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="E88" s="95"/>
-      <c r="F88" s="95"/>
-      <c r="G88" s="96"/>
-      <c r="H88" s="10"/>
-      <c r="J88" s="46"/>
-    </row>
-    <row r="89" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J89" s="46"/>
-    </row>
-    <row r="90" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="88" t="s">
+      <c r="E88" s="118"/>
+      <c r="F88" s="118"/>
+      <c r="G88" s="119"/>
+      <c r="H88" s="10">
+        <f>SUMIF(C12:G12,"&gt;0",K89:O89) + SUMIF(C12:G12,"&gt;0",K88:O88)</f>
+        <v>4.5153571497383691</v>
+      </c>
+      <c r="J88" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="K88" s="90">
+        <f>C78*alpha_title</f>
+        <v>4.5153571497383691</v>
+      </c>
+      <c r="L88" s="96">
+        <f>D78*alpha_title</f>
+        <v>5.2657738154790072</v>
+      </c>
+      <c r="M88" s="96">
+        <f>E78*alpha_title</f>
+        <v>0</v>
+      </c>
+      <c r="N88" s="96">
+        <f>F78*alpha_title</f>
+        <v>0</v>
+      </c>
+      <c r="O88" s="128">
+        <f>G78*alpha_title</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J89" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="K89" s="126">
+        <f>C79*alpha_title</f>
+        <v>0</v>
+      </c>
+      <c r="L89" s="97">
+        <f>D79*alpha_title</f>
+        <v>4.9190890229429005</v>
+      </c>
+      <c r="M89" s="97">
+        <f>E79*alpha_title</f>
+        <v>4.7796425136136218</v>
+      </c>
+      <c r="N89" s="97">
+        <f>F79*alpha_title</f>
+        <v>0</v>
+      </c>
+      <c r="O89" s="127">
+        <f>G79*alpha_title</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="D90" s="89"/>
-      <c r="E90" s="89"/>
-      <c r="F90" s="89"/>
-      <c r="G90" s="90"/>
+      <c r="D90" s="112"/>
+      <c r="E90" s="112"/>
+      <c r="F90" s="112"/>
+      <c r="G90" s="113"/>
       <c r="H90" s="12" t="s">
         <v>5</v>
       </c>
       <c r="J90" s="46"/>
     </row>
-    <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="69" t="s">
         <v>24</v>
       </c>
@@ -3363,33 +3636,33 @@
       </c>
       <c r="E91" s="40">
         <f>SUM(alpha_title * E4, alpha_abs * E5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" s="40">
         <f>SUM(alpha_title * F4, alpha_abs * F5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G91" s="6">
         <f>SUM(alpha_title * G4, alpha_abs * G5)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H91" s="63">
         <f>SUM(C91:G91)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J91" s="46"/>
     </row>
-    <row r="92" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="58" t="s">
         <v>25</v>
       </c>
       <c r="C92" s="37">
         <f>SUM(alpha_title * C7, alpha_abs * C8)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" s="37">
         <f>SUM(alpha_title * D7, alpha_abs * D8)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E92" s="37">
         <f>SUM(alpha_title * E7, alpha_abs * E8)</f>
@@ -3405,33 +3678,33 @@
       </c>
       <c r="H92" s="10">
         <f>SUM(C92:G92)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J92" s="46"/>
     </row>
-    <row r="93" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="46"/>
       <c r="J93" s="46"/>
     </row>
-    <row r="94" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="56"/>
-      <c r="C94" s="85" t="s">
+      <c r="C94" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="D94" s="86"/>
-      <c r="E94" s="86"/>
-      <c r="F94" s="86"/>
-      <c r="G94" s="87"/>
+      <c r="D94" s="109"/>
+      <c r="E94" s="109"/>
+      <c r="F94" s="109"/>
+      <c r="G94" s="110"/>
       <c r="J94" s="46"/>
     </row>
-    <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="56"/>
       <c r="B95" s="47" t="s">
         <v>24</v>
       </c>
       <c r="C95" s="40">
         <f>(C91 * ($J$11 + 1)) / ($J$11 * ( ( 1 - $K$11) + $K$11 * ($H$91 / $L$4)) + C91)</f>
-        <v>1.1267605633802817</v>
+        <v>1.0126582278481011</v>
       </c>
       <c r="D95" s="40">
         <f t="shared" ref="D95:G95" si="18">(D91 * ($J$11 + 1)) / ($J$11 * ( ( 1 - $K$11) + $K$11 * ($H$91 / $L$4)) + D91)</f>
@@ -3439,40 +3712,40 @@
       </c>
       <c r="E95" s="40">
         <f t="shared" si="18"/>
-        <v>1.1267605633802817</v>
+        <v>1.3445378151260503</v>
       </c>
       <c r="F95" s="40">
         <f t="shared" si="18"/>
-        <v>1.6753926701570678</v>
+        <v>1.755485893416928</v>
       </c>
       <c r="G95" s="6">
         <f t="shared" si="18"/>
-        <v>1.7316017316017316</v>
+        <v>1.8045112781954888</v>
       </c>
       <c r="J95" s="46"/>
     </row>
-    <row r="96" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="56"/>
       <c r="B96" s="54" t="s">
         <v>25</v>
       </c>
       <c r="C96" s="43">
         <f>(C92 * ($J$11 + 1)) / ($J$11 * ( ( 1 - $K$11) + $K$11 * ($H$92 / $L$4)) + C92)</f>
-        <v>1.2121212121212122</v>
+        <v>1.4678899082568806</v>
       </c>
       <c r="D96" s="43">
         <f t="shared" ref="D96:G96" si="19">(D92 * ($J$11 + 1)) / ($J$11 * ( ( 1 - $K$11) + $K$11 * ($H$92 / $L$4)) + D92)</f>
-        <v>1.7204301075268815</v>
+        <v>1.7843866171003719</v>
       </c>
       <c r="E96" s="43">
         <f t="shared" si="19"/>
-        <v>1.2121212121212122</v>
+        <v>1.1594202898550725</v>
       </c>
       <c r="F96" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G96" s="81">
+      <c r="G96" s="80">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -3484,13 +3757,13 @@
       <c r="K97" s="46"/>
     </row>
     <row r="98" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="85" t="s">
+      <c r="C98" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="D98" s="86"/>
-      <c r="E98" s="86"/>
-      <c r="F98" s="86"/>
-      <c r="G98" s="87"/>
+      <c r="D98" s="109"/>
+      <c r="E98" s="109"/>
+      <c r="F98" s="109"/>
+      <c r="G98" s="110"/>
       <c r="H98" s="13" t="s">
         <v>26</v>
       </c>
@@ -3504,7 +3777,7 @@
       </c>
       <c r="C99" s="40">
         <f>C95 * C64</f>
-        <v>2.2249748516108485</v>
+        <v>1.9996609425869645</v>
       </c>
       <c r="D99" s="40">
         <f t="shared" ref="D99:G99" si="20">D95 * D64</f>
@@ -3512,19 +3785,19 @@
       </c>
       <c r="E99" s="40">
         <f t="shared" si="20"/>
-        <v>2.2249748516108485</v>
+        <v>2.6550120078045416</v>
       </c>
       <c r="F99" s="40">
         <f t="shared" si="20"/>
-        <v>2.6814762944659107</v>
+        <v>2.8096659919286231</v>
       </c>
       <c r="G99" s="40">
         <f t="shared" si="20"/>
-        <v>0.82518262575935009</v>
+        <v>0.85992715737027015</v>
       </c>
       <c r="H99" s="63">
         <f>SUMIF(C12:G12,"&gt;0",C99:G99)</f>
-        <v>3.0501574773701985</v>
+        <v>2.8595880999572345</v>
       </c>
       <c r="J99" s="46"/>
       <c r="K99" s="46"/>
@@ -3536,15 +3809,15 @@
       </c>
       <c r="C100" s="43">
         <f>C96  * C64</f>
-        <v>2.393533552490458</v>
+        <v>2.8985910910893615</v>
       </c>
       <c r="D100" s="43">
         <f t="shared" ref="D100:G100" si="21">D96  * D64</f>
-        <v>2.7229025261016457</v>
+        <v>2.8241256683359084</v>
       </c>
       <c r="E100" s="43">
         <f t="shared" si="21"/>
-        <v>2.393533552490458</v>
+        <v>2.2894668762952208</v>
       </c>
       <c r="F100" s="43">
         <f t="shared" si="21"/>
@@ -3556,7 +3829,7 @@
       </c>
       <c r="H100" s="10">
         <f>SUMIF(C12:G12,"&gt;0",C100:G100)</f>
-        <v>2.393533552490458</v>
+        <v>2.8985910910893615</v>
       </c>
       <c r="J100" s="46"/>
       <c r="K100" s="46"/>
@@ -4990,8 +5263,7 @@
       <c r="J249" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="I67:I72"/>
+  <mergeCells count="23">
     <mergeCell ref="I75:I80"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="H48:H53"/>
@@ -4999,6 +5271,7 @@
     <mergeCell ref="H42:H47"/>
     <mergeCell ref="H58:H60"/>
     <mergeCell ref="H61:H63"/>
+    <mergeCell ref="K84:O84"/>
     <mergeCell ref="C98:G98"/>
     <mergeCell ref="C94:G94"/>
     <mergeCell ref="C2:G2"/>
@@ -5013,6 +5286,7 @@
     <mergeCell ref="C82:G82"/>
     <mergeCell ref="C57:G57"/>
     <mergeCell ref="C41:G41"/>
+    <mergeCell ref="I67:I72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
